--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Adamczyk.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Adamczyk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,422 +461,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:04.20</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:05.20</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:06.20</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:07.20</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:08.20</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:09.20</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:10.20</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:11.20</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:12.20</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>30.01.2025 11:00:13.20</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:50.20</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:51.20</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:52.20</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:53.20</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:54.20</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:55.20</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:56.20</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:57.20</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:58.20</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:05:59.20</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0-5</t>
+          <t>5-10</t>
         </is>
       </c>
     </row>

--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Adamczyk.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Adamczyk.xlsx
@@ -461,7 +461,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>27.01.2025</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -472,7 +476,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27.01.2025</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>

--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Adamczyk.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Adamczyk.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -474,12 +481,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -489,6 +499,155 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
